--- a/Assets/StreamingAssets/Lantern.xlsx
+++ b/Assets/StreamingAssets/Lantern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E110A07C-64EE-4C46-940A-326309F8CB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E059442-48F0-7B49-A42C-9298EE076F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -192,16 +192,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It seems this lantern must have come from the manor——was it the master’s, or the killer’s?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If it belonged to the killer and was dropped here, then in last night’s wind and rain......</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Yes, and there are also sword marks on the tree trunks——it seems a fierce fight took place here.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seems this lantern must have come from the manor——was it the Lord’s, or the killer’s?</t>
   </si>
 </sst>
 </file>
@@ -719,7 +718,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -739,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -799,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
